--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_1.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Reviciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B9CEB3-BF6F-420B-91D3-6AEAD3BDBB7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA92638-2892-450F-8A8A-B95BCE7C77C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -412,6 +411,1297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Métricas de tiempo - Revisión 1 - Juan Carlos D</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Horas estimadas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$G$6:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E54-4F8A-8168-E87F7621D748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Descripción de caso de uso</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Diagrama de robuztes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Diagrama de secuencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$AZ$6:$AZ$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E54-4F8A-8168-E87F7621D748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="499264744"/>
+        <c:axId val="499265072"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="499264744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Caso de uso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499265072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499265072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Horas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499264744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163504</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>459441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6CC2BD-AE2F-4492-99D2-689B87AC7A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,11 +1993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,8 +3569,14 @@
         <f t="shared" si="13"/>
         <v>1.85</v>
       </c>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
+      <c r="AZ16" s="10">
+        <f t="shared" ref="AZ16:AZ22" si="17">H16+K16+N16+Q16+T16+W16+Z16+AC16+AF16+AI16+AL16+AO16+AR16+AU16+AX16</f>
+        <v>0.15</v>
+      </c>
+      <c r="BA16" s="10">
+        <f t="shared" ref="BA16:BA22" si="18">G16-AZ16</f>
+        <v>1.85</v>
+      </c>
     </row>
     <row r="17" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -2388,8 +3684,14 @@
         <f t="shared" si="13"/>
         <v>1.85</v>
       </c>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
+      <c r="AZ17" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="BA17" s="10">
+        <f t="shared" si="18"/>
+        <v>1.85</v>
+      </c>
     </row>
     <row r="18" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
@@ -2503,8 +3805,14 @@
         <f t="shared" si="13"/>
         <v>1.35</v>
       </c>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
+      <c r="AZ18" s="10">
+        <f t="shared" si="17"/>
+        <v>0.65</v>
+      </c>
+      <c r="BA18" s="10">
+        <f t="shared" si="18"/>
+        <v>1.35</v>
+      </c>
     </row>
     <row r="19" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
@@ -2612,8 +3920,14 @@
         <f t="shared" si="13"/>
         <v>1.85</v>
       </c>
-      <c r="AZ19" s="10"/>
-      <c r="BA19" s="10"/>
+      <c r="AZ19" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="BA19" s="10">
+        <f t="shared" si="18"/>
+        <v>1.85</v>
+      </c>
     </row>
     <row r="20" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
@@ -2721,8 +4035,14 @@
         <f t="shared" si="13"/>
         <v>1.85</v>
       </c>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
+      <c r="AZ20" s="10">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="BA20" s="10">
+        <f t="shared" si="18"/>
+        <v>1.85</v>
+      </c>
     </row>
     <row r="21" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
@@ -2838,8 +4158,14 @@
         <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
+      <c r="AZ21" s="10">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="BA21" s="10">
+        <f t="shared" si="18"/>
+        <v>1.25</v>
+      </c>
     </row>
     <row r="22" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -2947,8 +4273,14 @@
         <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
-      <c r="AZ22" s="10"/>
-      <c r="BA22" s="10"/>
+      <c r="AZ22" s="10">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="BA22" s="10">
+        <f t="shared" si="18"/>
+        <v>1.8</v>
+      </c>
     </row>
     <row r="23" spans="2:53" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -3172,6 +4504,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -3183,11 +4520,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3196,6 +4528,7 @@
     <brk id="36" max="18" man="1"/>
     <brk id="53" max="18" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_1.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA92638-2892-450F-8A8A-B95BCE7C77C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EFE4AF-EB55-466F-BA25-930742D0E989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,6 +679,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Horas invertidas</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -4504,11 +4507,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -4520,6 +4518,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
